--- a/rapport_global.xlsx
+++ b/rapport_global.xlsx
@@ -11,6 +11,14 @@
     <sheet name="Résumé global" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Confusion 1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Confusion 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Confusion 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Confusion 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Confusion 5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Confusion 6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Confusion 7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Confusion 8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Confusion 9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Confusion 10" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +528,295 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04237399621885522</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout itération 3 : 100% d’erreur sur le geste 3
+dict_creation_iterout itération 6 : 40% d’erreur sur le geste 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06131883886702355</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>dict_creation_userout itération 1 : 30% d’erreur sur le geste 0
+dict_creation_userout itération 2 : 30% d’erreur sur le geste 0
+dict_creation_userout itération 2 : 40% d’erreur sur le geste 7
+dict_creation_userout itération 2 : 100% d’erreur sur le geste 8
+dict_creation_userout itération 5 : 50% d’erreur sur le geste 9
+dict_creation_userout itération 7 : 70% d’erreur sur le geste 6
+dict_creation_userout itération 10 : 100% d’erreur sur le geste 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01135292424395094</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05186520991955973</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dict_creation_userout itération 2 : 40% d’erreur sur le geste 2
+dict_creation_userout itération 2 : 50% d’erreur sur le geste 7
+dict_creation_userout itération 2 : 100% d’erreur sur le geste 8
+dict_creation_userout itération 4 : 30% d’erreur sur le geste 1
+dict_creation_userout itération 5 : 40% d’erreur sur le geste 0
+dict_creation_userout itération 6 : 40% d’erreur sur le geste 1
+dict_creation_userout itération 7 : 40% d’erreur sur le geste 0
+dict_creation_userout itération 7 : 30% d’erreur sur le geste 6
+dict_creation_userout itération 9 : 80% d’erreur sur le geste 2
+dict_creation_userout itération 10 : 100% d’erreur sur le geste 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KNN-DTW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01074967699773141</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KNN-DTW</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0948741856940607</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>dict_creation_userout itération 2 : 100% d’erreur sur le geste 8
+dict_creation_userout itération 5 : 60% d’erreur sur le geste 0
+dict_creation_userout itération 6 : 90% d’erreur sur le geste 0
+dict_creation_userout itération 6 : 100% d’erreur sur le geste 1
+dict_creation_userout itération 6 : 80% d’erreur sur le geste 8
+dict_creation_userout itération 6 : 40% d’erreur sur le geste 9
+dict_creation_userout itération 8 : 40% d’erreur sur le geste 1
+dict_creation_userout itération 10 : 100% d’erreur sur le geste 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01837873166945364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03405877273185279</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>dict_creation_userout itération 2 : 50% d’erreur sur le geste 7
+dict_creation_userout itération 5 : 30% d’erreur sur le geste 9
+dict_creation_userout itération 6 : 70% d’erreur sur le geste 1
+dict_creation_userout itération 7 : 40% d’erreur sur le geste 6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -531,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +865,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -578,27 +874,171 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.973</v>
+        <v>0.988</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KNN-DTW</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KNN-DTW</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dict_creation_userout</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dict_creation_iterout</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>dict_creation_userout</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C11" t="n">
         <v>0.954</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -641,4 +1081,94 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>